--- a/Mak Mak - QUAD VCA-ATT-MIXER/BOM.xlsx
+++ b/Mak Mak - QUAD VCA-ATT-MIXER/BOM.xlsx
@@ -1481,7 +1481,7 @@
         <v>106</v>
       </c>
       <c r="B19" s="11">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="20">

--- a/Mak Mak - QUAD VCA-ATT-MIXER/BOM.xlsx
+++ b/Mak Mak - QUAD VCA-ATT-MIXER/BOM.xlsx
@@ -9,14 +9,14 @@
   </sheets>
   <definedNames>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'CONTROL BOARD'!$A$1:$E$15</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">'MAIN BOARD'!$A$1:$E$17</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">'MAIN BOARD'!$A$1:$E$16</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="111">
   <si>
     <t>Name</t>
   </si>
@@ -217,12 +217,6 @@
   </si>
   <si>
     <t>R63,R64,R2,R3,R29,R30,R43,R44</t>
-  </si>
-  <si>
-    <t>82k</t>
-  </si>
-  <si>
-    <t>R14,R34,R39,R68</t>
   </si>
   <si>
     <t>R18,R19</t>
@@ -353,9 +347,6 @@
   </si>
   <si>
     <t>A-2203</t>
-  </si>
-  <si>
-    <t>A-2338</t>
   </si>
   <si>
     <t>A-2198</t>
@@ -1102,7 +1093,7 @@
         <v>31</v>
       </c>
       <c r="D6" s="6">
-        <v>12.0</v>
+        <v>16.0</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>32</v>
@@ -1143,160 +1134,143 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>68</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D9" s="6">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="6">
+      <c r="A10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="6">
         <v>10.0</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>32</v>
+      <c r="E10" s="8" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="D11" s="6">
-        <v>10.0</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>16</v>
+        <v>2.0</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="D12" s="6">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D13" s="6">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14" s="6" t="s">
         <v>80</v>
       </c>
+      <c r="C14" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="D14" s="6">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="6" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>43</v>
+      <c r="C15" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="D15" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>44</v>
+        <v>2.0</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="6" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C16" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D16" s="5">
         <v>4.0</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E16" s="7" t="s">
         <v>48</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$E$17"/>
+  <autoFilter ref="$A$1:$E$16"/>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="E2"/>
     <hyperlink r:id="rId2" ref="E3"/>
@@ -1313,12 +1287,11 @@
     <hyperlink r:id="rId13" ref="E14"/>
     <hyperlink r:id="rId14" ref="E15"/>
     <hyperlink r:id="rId15" ref="E16"/>
-    <hyperlink r:id="rId16" ref="E17"/>
   </hyperlinks>
   <printOptions gridLines="1" horizontalCentered="1"/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup fitToHeight="0" paperSize="9" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
-  <drawing r:id="rId17"/>
+  <drawing r:id="rId16"/>
 </worksheet>
 </file>
 
@@ -1334,15 +1307,15 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B2" s="11">
         <v>1.0</v>
@@ -1350,7 +1323,7 @@
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B3" s="11">
         <v>12.0</v>
@@ -1358,7 +1331,7 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B4" s="11">
         <v>20.0</v>
@@ -1366,7 +1339,7 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B5" s="11">
         <v>4.0</v>
@@ -1374,7 +1347,7 @@
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B6" s="11">
         <v>1.0</v>
@@ -1382,7 +1355,7 @@
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B7" s="11">
         <v>1.0</v>
@@ -1390,15 +1363,15 @@
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B8" s="11">
-        <v>30.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B9" s="11">
         <v>20.0</v>
@@ -1406,7 +1379,7 @@
     </row>
     <row r="10">
       <c r="A10" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B10" s="11">
         <v>10.0</v>
@@ -1414,7 +1387,7 @@
     </row>
     <row r="11">
       <c r="A11" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B11" s="11">
         <v>10.0</v>
@@ -1422,7 +1395,7 @@
     </row>
     <row r="12">
       <c r="A12" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B12" s="11">
         <v>10.0</v>
@@ -1430,7 +1403,7 @@
     </row>
     <row r="13">
       <c r="A13" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B13" s="11">
         <v>5.0</v>
@@ -1438,7 +1411,7 @@
     </row>
     <row r="14">
       <c r="A14" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B14" s="11">
         <v>5.0</v>
@@ -1446,7 +1419,7 @@
     </row>
     <row r="15">
       <c r="A15" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B15" s="11">
         <v>4.0</v>
@@ -1454,7 +1427,7 @@
     </row>
     <row r="16">
       <c r="A16" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B16" s="11">
         <v>8.0</v>
@@ -1462,7 +1435,7 @@
     </row>
     <row r="17">
       <c r="A17" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B17" s="11">
         <v>4.0</v>
@@ -1470,7 +1443,7 @@
     </row>
     <row r="18">
       <c r="A18" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B18" s="11">
         <v>10.0</v>
@@ -1478,7 +1451,7 @@
     </row>
     <row r="19">
       <c r="A19" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B19" s="11">
         <v>10.0</v>
@@ -1486,7 +1459,7 @@
     </row>
     <row r="20">
       <c r="A20" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B20" s="11">
         <v>20.0</v>
@@ -1494,7 +1467,7 @@
     </row>
     <row r="21">
       <c r="A21" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B21" s="11">
         <v>10.0</v>
@@ -1502,43 +1475,38 @@
     </row>
     <row r="22">
       <c r="A22" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B22" s="11">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B23" s="11">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B24" s="11">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B25" s="11">
         <v>2.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="B26" s="11">
-        <v>2.0</v>
-      </c>
+      <c r="B26" s="11"/>
     </row>
     <row r="27">
       <c r="B27" s="11"/>
@@ -1571,7 +1539,7 @@
       <c r="B36" s="11"/>
     </row>
     <row r="37">
-      <c r="B37" s="11"/>
+      <c r="B37" s="12"/>
     </row>
     <row r="38">
       <c r="B38" s="12"/>
@@ -4458,9 +4426,6 @@
     </row>
     <row r="999">
       <c r="B999" s="12"/>
-    </row>
-    <row r="1000">
-      <c r="B1000" s="12"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
